--- a/references/normalization/taco_phase_5_decouple_food.xlsx
+++ b/references/normalization/taco_phase_5_decouple_food.xlsx
@@ -1882,10 +1882,10 @@
     <t>Soja, queijo (tofu)</t>
   </si>
   <si>
-    <t>0emoço, cru</t>
+    <t>Tremoço, cru</t>
   </si>
   <si>
-    <t>0emoço, em conserva</t>
+    <t>Tremoço, em conserva</t>
   </si>
   <si>
     <t>Amêndoa, torrada, salgada</t>
